--- a/Plot_tool/xlsx/DCT_32x32.xlsx
+++ b/Plot_tool/xlsx/DCT_32x32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38E8262C-B8FB-41A7-9B36-76667EA4DE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2771C09-E48C-44CA-BBDE-3FCD0C13B20B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="7"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="Mandrill" sheetId="6" r:id="rId6"/>
     <sheet name="Milkdrop" sheetId="7" r:id="rId7"/>
     <sheet name="Sailboat" sheetId="8" r:id="rId8"/>
+    <sheet name="TEST02" sheetId="9" r:id="rId9"/>
+    <sheet name="TEST19" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
   <si>
     <t>bpp</t>
   </si>
@@ -56,13 +58,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
     <numFmt numFmtId="178" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +166,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -296,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,25 +323,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
-    <cellStyle name="Accent" xfId="1"/>
-    <cellStyle name="Accent 1" xfId="2"/>
-    <cellStyle name="Accent 2" xfId="3"/>
-    <cellStyle name="Accent 3" xfId="4"/>
-    <cellStyle name="Bad" xfId="5"/>
-    <cellStyle name="Error" xfId="6"/>
-    <cellStyle name="Footnote" xfId="7"/>
-    <cellStyle name="Good" xfId="8"/>
-    <cellStyle name="Heading (user)" xfId="9"/>
-    <cellStyle name="Heading 1" xfId="10"/>
-    <cellStyle name="Heading 2" xfId="11"/>
-    <cellStyle name="Hyperlink" xfId="12"/>
-    <cellStyle name="Neutral" xfId="13"/>
-    <cellStyle name="Note" xfId="14"/>
-    <cellStyle name="Status" xfId="15"/>
-    <cellStyle name="Text" xfId="16"/>
-    <cellStyle name="Warning" xfId="17"/>
+    <cellStyle name="Accent" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Error" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Good" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Heading (user)" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Hyperlink" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Neutral" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Note" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Status" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Text" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Warning" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,14 +656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
@@ -661,7 +672,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -713,7 +724,7 @@
         <v>1826429.5111109</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -733,7 +744,7 @@
         <v>7216.0947265625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -753,7 +764,7 @@
         <v>6020.853515625</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -773,7 +784,7 @@
         <v>5752.4658203125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -793,7 +804,7 @@
         <v>5814.541015625</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -813,7 +824,7 @@
         <v>5353.4599609375</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -833,7 +844,7 @@
         <v>5308.966796875</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -853,7 +864,7 @@
         <v>5173.1689453125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -873,7 +884,7 @@
         <v>4976.767578125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -893,7 +904,7 @@
         <v>4776.2197265625</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -913,7 +924,7 @@
         <v>4556.40234375</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -933,7 +944,7 @@
         <v>4548.009765625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -953,8 +964,6 @@
         <v>4456.6376953125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -965,15 +974,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94815678-B5B9-40FA-8D5E-BC6DC2B706A1}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -981,7 +990,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,10 +1016,325 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
+      <c r="B2" s="6">
+        <v>21.38671875</v>
+      </c>
+      <c r="C2" s="3">
+        <v>40.991219930478003</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.94909481064672896</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2618.96215820312</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1800.6259155273401</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>17.28515625</v>
+      </c>
+      <c r="C3" s="3">
+        <v>41.574103310822998</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.95248118945112403</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2522.64599609375</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1807.42358398437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>14.74609375</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42.0447647845699</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.95541694253694398</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2474.6944580078102</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1810.66772460937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="6">
+        <v>12.98828125</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42.447326309034601</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.95778104609074</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2453.50659179687</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1799.9666137695301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>11.62109375</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42.824341130286101</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.96022434346254204</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2446.24926757812</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1793.36987304687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="6">
+        <v>10.44921875</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43.204794267128499</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.96231025168520901</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2449.17553710937</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1802.74353027343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>9.66796875</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43.500229893808701</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.96405724689326799</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2435.76806640625</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1805.5366821289001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8.88671875</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43.8343574750511</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.965856720294622</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2428.8026123046802</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1804.7724609375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>8.30078125</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44.115169366771603</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.96743058142634397</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2418.39233398437</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1798.77062988281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="6">
+        <v>7.71484375</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44.428595374888701</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.96888766065412602</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2401.1292724609302</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1789.29907226562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>7.12890625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44.777343478865198</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.97054771741023704</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2389.7310791015602</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1789.7852172851501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="6">
+        <v>6.73828125</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45.034771542610699</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.97181489360058704</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2371.64184570312</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1791.0009765625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6.34765625</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45.314664865412901</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.97298145630875799</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2358.2791748046802</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1788.6494750976501</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
       <c r="B2" s="3">
         <v>143.75</v>
       </c>
@@ -1033,7 +1357,7 @@
         <v>2229040.0588857401</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1053,7 +1377,7 @@
         <v>9253.8359375</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1073,7 +1397,7 @@
         <v>9098.7001953125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1093,7 +1417,7 @@
         <v>9028.6943359375</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1113,7 +1437,7 @@
         <v>9529.2119140625</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1133,7 +1457,7 @@
         <v>9261.1962890625</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1153,7 +1477,7 @@
         <v>8888.224609375</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1173,7 +1497,7 @@
         <v>9447.458984375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1193,7 +1517,7 @@
         <v>9697.8759765625</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1213,7 +1537,7 @@
         <v>9991.8662109375</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1233,7 +1557,7 @@
         <v>9863.625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1253,7 +1577,7 @@
         <v>9799.484375</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1273,8 +1597,6 @@
         <v>9455.9970703125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -1286,14 +1608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1301,7 +1623,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1353,7 +1675,7 @@
         <v>1955122.16030488</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1373,7 +1695,7 @@
         <v>8412</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1393,7 +1715,7 @@
         <v>7551.9833984375</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1413,7 +1735,7 @@
         <v>7695.4970703125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1433,7 +1755,7 @@
         <v>6752.97265625</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1453,7 +1775,7 @@
         <v>7389.1865234375</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1473,7 +1795,7 @@
         <v>7062.2001953125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1493,7 +1815,7 @@
         <v>6914.2109375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1513,7 +1835,7 @@
         <v>6661.1416015625</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1533,7 +1855,7 @@
         <v>6483.8154296875</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1553,7 +1875,7 @@
         <v>6226.595703125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1573,7 +1895,7 @@
         <v>6264.0126953125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1593,8 +1915,6 @@
         <v>6078.462890625</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -1606,14 +1926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1621,7 +1941,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1673,7 +1993,7 @@
         <v>1986675.8469837001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -1693,7 +2013,7 @@
         <v>4905.0439453125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -1713,7 +2033,7 @@
         <v>4894.380859375</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -1733,7 +2053,7 @@
         <v>4800.8955078125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -1753,7 +2073,7 @@
         <v>4674.283203125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -1773,7 +2093,7 @@
         <v>5004.71875</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1793,7 +2113,7 @@
         <v>4820.142578125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -1813,7 +2133,7 @@
         <v>4728.1748046875</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -1833,7 +2153,7 @@
         <v>4615.7060546875</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -1853,7 +2173,7 @@
         <v>4693.4423828125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -1873,7 +2193,7 @@
         <v>4401.6845703125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -1893,7 +2213,7 @@
         <v>4472.1572265625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -1913,8 +2233,6 @@
         <v>4188.1337890625</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -1926,14 +2244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -1941,7 +2259,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +2285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -1993,7 +2311,7 @@
         <v>1607517.04618607</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2013,7 +2331,7 @@
         <v>5943.134765625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2033,7 +2351,7 @@
         <v>5791.390625</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2053,7 +2371,7 @@
         <v>5676.3974609375</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2073,7 +2391,7 @@
         <v>5013.7626953125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2093,7 +2411,7 @@
         <v>4662.3173828125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2113,7 +2431,7 @@
         <v>4725.904296875</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2133,7 +2451,7 @@
         <v>4615.935546875</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2153,7 +2471,7 @@
         <v>4351.544921875</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2173,7 +2491,7 @@
         <v>4188.8369140625</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2193,7 +2511,7 @@
         <v>4157.8017578125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2213,7 +2531,7 @@
         <v>4171.5009765625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2233,8 +2551,6 @@
         <v>4105.7314453125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -2246,14 +2562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2261,7 +2577,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2313,7 +2629,7 @@
         <v>4045291.84913714</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2333,7 +2649,7 @@
         <v>15059.31640625</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2353,7 +2669,7 @@
         <v>16030.318359375</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2373,7 +2689,7 @@
         <v>14861.560546875</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2393,7 +2709,7 @@
         <v>14828.0419921875</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2413,7 +2729,7 @@
         <v>14259.21875</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2433,7 +2749,7 @@
         <v>13603.884765625</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2453,7 +2769,7 @@
         <v>13245.8037109375</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2473,7 +2789,7 @@
         <v>13903.8955078125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2493,7 +2809,7 @@
         <v>13553.638671875</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2513,7 +2829,7 @@
         <v>12958.115234375</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2533,7 +2849,7 @@
         <v>12301.7587890625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2553,8 +2869,6 @@
         <v>11872.2607421875</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -2566,14 +2880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2581,7 +2895,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2633,7 +2947,7 @@
         <v>1127600.63082531</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2653,7 +2967,7 @@
         <v>3401.5673828125</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2673,7 +2987,7 @@
         <v>3364.22265625</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -2693,7 +3007,7 @@
         <v>3326.888671875</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -2713,7 +3027,7 @@
         <v>3279.552734375</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -2733,7 +3047,7 @@
         <v>3161.3388671875</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2753,7 +3067,7 @@
         <v>3015.4990234375</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -2773,7 +3087,7 @@
         <v>3029.31640625</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -2793,7 +3107,7 @@
         <v>3051.2197265625</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -2813,7 +3127,7 @@
         <v>3029.1279296875</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -2833,7 +3147,7 @@
         <v>3081.703125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -2853,7 +3167,7 @@
         <v>2989.0556640625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -2873,8 +3187,6 @@
         <v>2978.513671875</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
@@ -2886,14 +3198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
@@ -2901,7 +3213,7 @@
     <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +3239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -2953,7 +3265,7 @@
         <v>2708631.8200443801</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.25</v>
       </c>
@@ -2973,7 +3285,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -2993,7 +3305,7 @@
         <v>11068.01953125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.35</v>
       </c>
@@ -3013,7 +3325,7 @@
         <v>10320.41796875</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -3033,7 +3345,7 @@
         <v>10313.8876953125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>0.45</v>
       </c>
@@ -3053,7 +3365,7 @@
         <v>10353.64453125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -3073,7 +3385,7 @@
         <v>10567.1904296875</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0.55000000000000004</v>
       </c>
@@ -3093,7 +3405,7 @@
         <v>10059.51953125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -3113,7 +3425,7 @@
         <v>10023.1513671875</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0.65</v>
       </c>
@@ -3133,7 +3445,7 @@
         <v>9842.0439453125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0.7</v>
       </c>
@@ -3153,7 +3465,7 @@
         <v>9475.900390625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0.75</v>
       </c>
@@ -3173,7 +3485,7 @@
         <v>8968.931640625</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0.8</v>
       </c>
@@ -3193,11 +3505,325 @@
         <v>9137.9990234375</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25"/>
-    <row r="17" ht="14.25"/>
   </sheetData>
   <phoneticPr fontId="15"/>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;Cページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F015A2-F412-4D6C-98B2-17166E91C207}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>13.37890625</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44.537690706813699</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.97403126343472701</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1558.15380859375</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1232.7122192382801</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>10.83984375</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45.017021072243701</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.97551200162592699</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1512.76184082031</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1216.7631225585901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>9.08203125</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45.446417840847303</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.97694966806621797</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1523.8681640625</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1222.3262329101501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="6">
+        <v>8.10546875</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45.744362052722799</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.97801180804613497</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1539.140625</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1226.1027221679601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7.32421875</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46.030167493659697</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.97904376959656803</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1552.76684570312</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1231.0732421875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6.73828125</v>
+      </c>
+      <c r="C7" s="3">
+        <v>46.286660233296097</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.97998069571208901</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1570.73547363281</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1226.5973510742101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6.15234375</v>
+      </c>
+      <c r="C8" s="3">
+        <v>46.584982206760401</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.98105863807910998</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1587.10729980468</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1236.6334838867101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5.76171875</v>
+      </c>
+      <c r="C9" s="3">
+        <v>46.813480437719498</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.98186779164808602</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1594.63854980468</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1232.97180175781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5.37109375</v>
+      </c>
+      <c r="C10" s="3">
+        <v>47.071656582434201</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.98277312454141996</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1605.39501953125</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1235.0093383789001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4.98046875</v>
+      </c>
+      <c r="C11" s="3">
+        <v>47.368924019215797</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.98377015879190099</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1614.17993164062</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1231.4290161132801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4.78515625</v>
+      </c>
+      <c r="C12" s="3">
+        <v>47.532327361006303</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.98430173101462903</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1616.80419921875</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1233.1184692382801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4.58984375</v>
+      </c>
+      <c r="C13" s="3">
+        <v>47.708140234904299</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.98485922415354499</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1621.86047363281</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1233.33654785156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4.39453125</v>
+      </c>
+      <c r="C14" s="3">
+        <v>47.897551537706299</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.98544412382221303</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1623.51208496093</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1229.26940917968</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15"/>
+  <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;Cページ &amp;P</oddFooter>

--- a/Plot_tool/xlsx/DCT_32x32.xlsx
+++ b/Plot_tool/xlsx/DCT_32x32.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="Sailboat" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="TEST02" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="TEST19" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="8">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -72,6 +73,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -515,13 +517,13 @@
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -835,15 +837,15 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1132,6 +1134,324 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>1788.64947509765</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>83.69140625</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>32.2679692264521</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.85229917524432</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>31922.15234375</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>6889.66528320313</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>63.18359375</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>33.7386458568993</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.879159948033101</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>25193.623046875</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>6349.1142578125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>49.70703125</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>35.0097215059688</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.898626051301287</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>21337.9501953125</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>5965.755859375</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>40.52734375</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>36.0956969519617</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.914116908382876</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>18602.4829101563</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>5700.15454101563</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>33.88671875</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>37.0592533119123</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.925501980970739</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>16749.1279296875</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>5683.5029296875</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <v>28.61328125</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>37.9792599711144</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.936175775286023</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>15138.7387695313</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>5433.72094726563</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>24.70703125</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>38.7604081122406</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.944656485231163</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>13893.3022460938</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>5284.1728515625</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <v>21.38671875</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>39.5301402411796</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.952013635921222</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>12871.9038085938</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>5140.54052734375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>18.84765625</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>40.1972612613693</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.957477546987135</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>12363.5712890625</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5078.2919921875</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>16.69921875</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>40.8265304158359</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.962240516749304</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>11874.5229492188</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>5014.404296875</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>14.74609375</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>41.4632408413443</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.967156244214355</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>11293.5327148438</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>4962.56567382813</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>13.37890625</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>41.9552140631451</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.97036489570424</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>10990.3657226563</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>4942.61987304688</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>12.01171875</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>42.4937144366657</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.972767354751993</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>10694.4252929688</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>4884.392578125</v>
       </c>
     </row>
   </sheetData>
@@ -1156,12 +1476,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,12 +1798,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,12 +2120,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,12 +2442,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2444,12 +2764,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,12 +3086,12 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,12 +3408,12 @@
       <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,16 +3726,16 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,7 +3764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0.2</v>
       </c>
@@ -3466,7 +3786,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0.25</v>
       </c>
@@ -3486,7 +3806,7 @@
         <v>1216.76312255859</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>0.3</v>
       </c>
@@ -3506,7 +3826,7 @@
         <v>1222.32623291015</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>0.35</v>
       </c>
@@ -3526,7 +3846,7 @@
         <v>1226.10272216796</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>0.4</v>
       </c>
@@ -3546,7 +3866,7 @@
         <v>1231.0732421875</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>0.45</v>
       </c>
@@ -3566,7 +3886,7 @@
         <v>1226.59735107421</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>0.5</v>
       </c>
@@ -3586,7 +3906,7 @@
         <v>1236.63348388671</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>0.55</v>
       </c>
@@ -3606,7 +3926,7 @@
         <v>1232.97180175781</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>0.6</v>
       </c>
@@ -3626,7 +3946,7 @@
         <v>1235.0093383789</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>0.65</v>
       </c>
@@ -3646,7 +3966,7 @@
         <v>1231.42901611328</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>0.7</v>
       </c>
@@ -3666,7 +3986,7 @@
         <v>1233.11846923828</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>0.75</v>
       </c>
@@ -3686,7 +4006,7 @@
         <v>1233.33654785156</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>0.8</v>
       </c>

--- a/Plot_tool/xlsx/DCT_32x32.xlsx
+++ b/Plot_tool/xlsx/DCT_32x32.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,7 @@
     <sheet name="TEST19" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="N8RGB" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Trumpet" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Sailboat256" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="8">
   <si>
     <t xml:space="preserve">bpp</t>
   </si>
@@ -529,7 +530,7 @@
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.75"/>
@@ -852,7 +853,7 @@
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -1170,7 +1171,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -1484,11 +1485,11 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -1782,6 +1783,324 @@
       </c>
       <c r="F14" s="1" t="n">
         <v>4904.74853515625</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="10.75"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="12" t="n">
+        <v>181.937217712402</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>23.3732241213705</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.633517113579692</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>133134.6640625</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>11321.39453125</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>150.541496276855</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>24.2192530483631</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.664104414995876</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>124100.5234375</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>12917.203125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="12" t="n">
+        <v>128.042411804199</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>24.9797107292167</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.691185263128571</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>105000.109375</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>11399.96484375</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>109.296989440918</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>25.7339929182354</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.718272229265835</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>99017.3515625</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10477.41796875</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>96.5520858764648</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>26.3526346797564</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.738538390771787</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>88396.3203125</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>10353.34765625</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>85.5913162231445</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>26.9629131932286</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0.760234906282428</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>81101.21875</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10540.9296875</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>76.536750793457</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>27.5697896798818</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.778367578906059</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>75559.0859375</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10332.46484375</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>68.8009262084961</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>28.1487149823345</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0.795145113214567</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>68912.046875</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>9378.4609375</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="12" t="n">
+        <v>62.3647689819336</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>28.665596891964</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.809592207932063</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>66080.484375</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>8562.1171875</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>57.2641372680664</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>29.1089687257931</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0.822582421491907</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>62491.2890625</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>8064.67578125</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="12" t="n">
+        <v>52.668571472168</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>29.5840217244245</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0.834163716578253</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>59948</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>7904.14453125</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>48.4121322631836</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>30.0620016674135</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0.845187968354782</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>59528.859375</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>7439.9140625</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="12" t="n">
+        <v>44.7668075561523</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>30.5352697335044</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0.856739851378822</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>58808.234375</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>7981.35546875</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +2125,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -2128,7 +2447,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -2450,7 +2769,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -2772,7 +3091,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -3094,7 +3413,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -3416,7 +3735,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -3738,7 +4057,7 @@
       <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>
@@ -4060,7 +4379,7 @@
       <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="3" width="10.75"/>

--- a/Plot_tool/xlsx/DCT_32x32.xlsx
+++ b/Plot_tool/xlsx/DCT_32x32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIRO\Documents\GitHub\Python_DCT\Plot_tool\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB76ADD-6AA2-4D97-946A-92CF21CE34BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36D377B-AA67-4C92-8CF2-BBBFE01AFD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Airplane" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="N8RGB" sheetId="11" r:id="rId11"/>
     <sheet name="Trumpet" sheetId="12" r:id="rId12"/>
     <sheet name="Sailboat256" sheetId="13" r:id="rId13"/>
+    <sheet name="TEST02 (2)" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="8">
   <si>
     <t>bpp</t>
   </si>
@@ -1410,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2351,6 +2352,321 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3BD86F-95E6-459F-8CD7-1D09F75B0EAD}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.75" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="12">
+        <v>13.471031188964799</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44.520460659570801</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.97397445545788797</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1560.90588378906</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1233.7634887695301</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B3" s="12">
+        <v>10.754966735839799</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45.034843622340297</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.97557194794856095</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1513.96472167968</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1215.19604492187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>9.1516494750976491</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45.424415539088599</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.97686961205400002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1519.20202636718</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1217.42578125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="B5" s="12">
+        <v>8.0732345581054599</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45.752468991256798</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.97803152467209598</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1538.27490234375</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1227.1146850585901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>7.2877883911132804</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46.045130697697097</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.97910222806325697</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1554.43884277343</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1232.28137207031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6.6724777221679599</v>
+      </c>
+      <c r="C7" s="3">
+        <v>46.317868628276202</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.98008828858962904</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1572.52648925781</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1230.0888061523401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6.1674118041992099</v>
+      </c>
+      <c r="C8" s="3">
+        <v>46.5746453518164</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.98102265288280999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1585.30505371093</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1238.9086303710901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B9" s="12">
+        <v>5.7443618774414</v>
+      </c>
+      <c r="C9" s="3">
+        <v>46.825869647298703</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.98191455017462004</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1593.24145507812</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1233.26965332031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5.3834915161132804</v>
+      </c>
+      <c r="C10" s="3">
+        <v>47.064185585352902</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.98274917521153604</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1605.28173828125</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1233.89453125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="B11" s="11">
+        <v>5.0672531127929599</v>
+      </c>
+      <c r="C11" s="3">
+        <v>47.300196887769602</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.983544414203538</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1614.12805175781</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1229.8510131835901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B12" s="12">
+        <v>4.78763580322265</v>
+      </c>
+      <c r="C12" s="3">
+        <v>47.529335071975297</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.98429290985153195</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1616.96911621093</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1231.61608886718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B13" s="12">
+        <v>4.5366287231445304</v>
+      </c>
+      <c r="C13" s="3">
+        <v>47.761085882107203</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.98503011655239703</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1621.04943847656</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1229.14709472656</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B14" s="12">
+        <v>4.3111801147460902</v>
+      </c>
+      <c r="C14" s="3">
+        <v>47.982689488382498</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.98570283312613705</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1626.01000976562</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1230.9188842773401</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17"/>
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
